--- a/Ukol 2/pmzs_protokol_201_LOGIN.xlsx
+++ b/Ukol 2/pmzs_protokol_201_LOGIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schne\Downloads\PMZS_vsechno\22_23\cv_03_okenni_funkce_algoritmy_fft_dft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Diplomka\PMZS\Ukol 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362EFD71-5A15-4960-86C5-9497FBC27BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3791E247-02B7-4A26-A44A-152F53C23EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24900" yWindow="3405" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protokol_201" sheetId="19" r:id="rId1"/>
@@ -423,29 +423,29 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +624,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:from>
@@ -632,7 +632,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>755650</xdr:rowOff>
+          <xdr:rowOff>752475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -678,15 +678,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>806450</xdr:colOff>
+          <xdr:colOff>809625</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>869950</xdr:rowOff>
+          <xdr:rowOff>866775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -732,13 +732,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>539750</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>457200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>654050</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>1143000</xdr:rowOff>
         </xdr:to>
@@ -786,15 +786,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>444500</xdr:rowOff>
+          <xdr:rowOff>447675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>1682750</xdr:rowOff>
+          <xdr:rowOff>1685925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -840,7 +840,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>146050</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>495300</xdr:rowOff>
         </xdr:from>
@@ -1182,26 +1182,26 @@
   <sheetPr codeName="List3"/>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="19"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="28"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -1245,10 +1245,10 @@
       <c r="L2" s="8"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1257,10 +1257,10 @@
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24"/>
       <c r="B7" s="15"/>
       <c r="C7" s="5"/>
@@ -1294,60 +1294,60 @@
       <c r="L7" s="5"/>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" ht="172.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="41"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>3</v>
       </c>
@@ -1356,14 +1356,14 @@
       </c>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="13" t="s">
@@ -1377,7 +1377,7 @@
       <c r="K13" s="1"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1392,7 +1392,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>4</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>5</v>
       </c>
@@ -1420,14 +1420,14 @@
       </c>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="M17" s="34"/>
     </row>
-    <row r="18" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="13" t="s">
@@ -1441,7 +1441,7 @@
       <c r="K18" s="1"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1456,26 +1456,26 @@
       <c r="L19" s="2"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>6</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>7</v>
       </c>
@@ -1484,14 +1484,14 @@
       </c>
       <c r="M21" s="33"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="262.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="13" t="s">
@@ -1505,7 +1505,7 @@
       <c r="K23" s="1"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1520,7 +1520,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>9</v>
       </c>
@@ -1548,14 +1548,14 @@
       </c>
       <c r="M26" s="33"/>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:13" ht="233.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="13" t="s">
@@ -1569,7 +1569,7 @@
       <c r="K28" s="1"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1584,26 +1584,26 @@
       <c r="L29" s="2"/>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>10</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="43"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>11</v>
       </c>
@@ -1612,14 +1612,14 @@
       </c>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="13" t="s">
@@ -1633,7 +1633,7 @@
       <c r="K33" s="1"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1648,7 +1648,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="35"/>
     </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>12</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="32"/>
     </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>13</v>
       </c>
@@ -1676,14 +1676,14 @@
       </c>
       <c r="M36" s="35"/>
     </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="M37" s="35"/>
     </row>
-    <row r="38" spans="1:13" ht="216.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="13" t="s">
@@ -1697,7 +1697,7 @@
       <c r="K38" s="1"/>
       <c r="M38" s="35"/>
     </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1712,7 +1712,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1727,26 +1727,26 @@
       <c r="L40" s="2"/>
       <c r="M40" s="32"/>
     </row>
-    <row r="41" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>14</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="41"/>
       <c r="M41" s="32"/>
     </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>15</v>
       </c>
@@ -1755,14 +1755,14 @@
       </c>
       <c r="M42" s="35"/>
     </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="M43" s="35"/>
     </row>
-    <row r="44" spans="1:13" ht="193.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="13" t="s">
@@ -1776,7 +1776,7 @@
       <c r="K44" s="1"/>
       <c r="M44" s="35"/>
     </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1791,7 +1791,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="32"/>
     </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>16</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="32"/>
     </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>17</v>
       </c>
@@ -1819,14 +1819,14 @@
       </c>
       <c r="M47" s="35"/>
     </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="M48" s="35"/>
     </row>
-    <row r="49" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="13" t="s">
@@ -1840,7 +1840,7 @@
       <c r="K49" s="1"/>
       <c r="M49" s="35"/>
     </row>
-    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1855,26 +1855,26 @@
       <c r="L50" s="2"/>
       <c r="M50" s="32"/>
     </row>
-    <row r="51" spans="1:13" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>18</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="43"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="41"/>
       <c r="M51" s="32"/>
     </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>19</v>
       </c>
@@ -1883,14 +1883,14 @@
       </c>
       <c r="M52" s="35"/>
     </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="M53" s="35"/>
     </row>
-    <row r="54" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="13" t="s">
@@ -1904,7 +1904,7 @@
       <c r="K54" s="1"/>
       <c r="M54" s="35"/>
     </row>
-    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1919,7 +1919,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="32"/>
     </row>
-    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>20</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="L56" s="5"/>
       <c r="M56" s="32"/>
     </row>
-    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>21</v>
       </c>
@@ -1947,14 +1947,14 @@
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="M58" s="35"/>
     </row>
-    <row r="59" spans="1:13" ht="229.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="13" t="s">
@@ -1968,7 +1968,7 @@
       <c r="K59" s="1"/>
       <c r="M59" s="35"/>
     </row>
-    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1983,7 +1983,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="32"/>
     </row>
-    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1998,26 +1998,26 @@
       <c r="L61" s="2"/>
       <c r="M61" s="32"/>
     </row>
-    <row r="62" spans="1:13" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>22</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="43"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="41"/>
       <c r="M62" s="35"/>
     </row>
-    <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>23</v>
       </c>
@@ -2026,14 +2026,14 @@
       </c>
       <c r="M63" s="35"/>
     </row>
-    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="M64" s="35"/>
     </row>
-    <row r="65" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="13" t="s">
@@ -2047,7 +2047,7 @@
       <c r="K65" s="1"/>
       <c r="M65" s="35"/>
     </row>
-    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2062,7 +2062,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="32"/>
     </row>
-    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>24</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="32"/>
     </row>
-    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>25</v>
       </c>
@@ -2090,14 +2090,14 @@
       </c>
       <c r="M68" s="35"/>
     </row>
-    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="M69" s="35"/>
     </row>
-    <row r="70" spans="1:13" ht="195.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="13" t="s">
@@ -2111,7 +2111,7 @@
       <c r="K70" s="1"/>
       <c r="M70" s="35"/>
     </row>
-    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2126,7 +2126,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="32"/>
     </row>
-    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2141,7 +2141,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="32"/>
     </row>
-    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>26</v>
       </c>
@@ -2162,15 +2162,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B41:L41"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B62:L62"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B41:L41"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B62:L62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2184,7 +2184,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>406400</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </from>
@@ -2192,7 +2192,7 @@
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>755650</xdr:rowOff>
+                <xdr:rowOff>752475</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2209,15 +2209,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>25400</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>184150</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>806450</xdr:colOff>
+                <xdr:colOff>809625</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>869950</xdr:rowOff>
+                <xdr:rowOff>866775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2234,13 +2234,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>539750</xdr:colOff>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>457200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>654050</xdr:colOff>
+                <xdr:colOff>657225</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>1143000</xdr:rowOff>
               </to>
@@ -2259,15 +2259,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>50</xdr:row>
-                <xdr:rowOff>444500</xdr:rowOff>
+                <xdr:rowOff>447675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>50</xdr:row>
-                <xdr:rowOff>1682750</xdr:rowOff>
+                <xdr:rowOff>1685925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2284,7 +2284,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>146050</xdr:colOff>
+                <xdr:colOff>142875</xdr:colOff>
                 <xdr:row>61</xdr:row>
                 <xdr:rowOff>495300</xdr:rowOff>
               </from>
@@ -2307,6 +2307,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B85DE651E213964F89B4E8CFE663B951" ma:contentTypeVersion="5" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="1315449b9b281b4f16247d3185558588">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="47db79b0-ff70-4609-aa38-4784c4f40f56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2387f7eddc926c1aeb714f5737be98c" ns2:_="">
     <xsd:import namespace="47db79b0-ff70-4609-aa38-4784c4f40f56"/>
@@ -2456,15 +2465,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2474,6 +2474,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E528F19-0D3B-4DB2-AABD-AB8DF3F86A8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5197D36-AD53-4637-AAB9-85D7CE284580}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2487,14 +2495,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E528F19-0D3B-4DB2-AABD-AB8DF3F86A8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
